--- a/output/fit_clients/fit_round_135.xlsx
+++ b/output/fit_clients/fit_round_135.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2357951070.48244</v>
+        <v>1811461526.990068</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06999411525599415</v>
+        <v>0.1033277702903565</v>
       </c>
       <c r="G2" t="n">
-        <v>0.041678370353274</v>
+        <v>0.03561830423653219</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1178975578.956559</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1941743057.482851</v>
+        <v>1601173807.773299</v>
       </c>
       <c r="F3" t="n">
-        <v>0.148646203969264</v>
+        <v>0.1229094285791682</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03659170818551279</v>
+        <v>0.0394670752626268</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>970871559.7341404</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3802442024.446453</v>
+        <v>4972393856.078135</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1581432517899186</v>
+        <v>0.1167900028173954</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0320361503246888</v>
+        <v>0.02772780091490589</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1901221012.360016</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3347010962.000795</v>
+        <v>4186854091.008592</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07888757748702416</v>
+        <v>0.08944997607948564</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03405319347306254</v>
+        <v>0.03162073433251848</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1673505527.883616</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2067268726.89751</v>
+        <v>2402825014.574771</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1011328645551412</v>
+        <v>0.1390909638813542</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04176998444454052</v>
+        <v>0.05064942215823049</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1033634385.722334</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2330366068.589738</v>
+        <v>2918540822.865105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06475831934507997</v>
+        <v>0.08453447862541247</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04353923609689429</v>
+        <v>0.03878300835245204</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>39</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1165183063.580267</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3181994048.618501</v>
+        <v>3891286055.4056</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1895830995963396</v>
+        <v>0.1576092654404762</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0243458803896161</v>
+        <v>0.02994801194036534</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>43</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1590997100.38736</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2251118084.283333</v>
+        <v>2228513384.139318</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1844721377580275</v>
+        <v>0.1524380922110368</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03056883501436533</v>
+        <v>0.03441721834580106</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1125559033.857672</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4330934820.967359</v>
+        <v>4135214338.966825</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1380579893102912</v>
+        <v>0.1784666724160884</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04762314922294832</v>
+        <v>0.05159680803735115</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>57</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2165467457.971452</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3572148876.348378</v>
+        <v>3786890062.885581</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1853661291579017</v>
+        <v>0.1717113548858013</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04939439673247451</v>
+        <v>0.03305529887439174</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>56</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1786074420.945461</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2241591756.818565</v>
+        <v>2968391257.292996</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1695114746208403</v>
+        <v>0.1200034480872965</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04613523596509719</v>
+        <v>0.03918442599328913</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>48</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1120795826.939908</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5258239106.613782</v>
+        <v>4525439339.935419</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06126919594754522</v>
+        <v>0.06970188133580896</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02157980855898856</v>
+        <v>0.02712234490918641</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>45</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2629119544.279729</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3381880483.67111</v>
+        <v>2886548208.961533</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1235793272424159</v>
+        <v>0.1465749357798801</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04243806806782275</v>
+        <v>0.03223912952974111</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>43</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1690940248.574401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1374732867.190959</v>
+        <v>1843513461.064806</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1018411319578081</v>
+        <v>0.09246495368357335</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03101176197268651</v>
+        <v>0.03837326552145399</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>687366490.6508263</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2221511641.251991</v>
+        <v>2299394868.220201</v>
       </c>
       <c r="F16" t="n">
-        <v>0.109633012588705</v>
+        <v>0.1079021287056803</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04473821950328784</v>
+        <v>0.04072416806109501</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1110755876.279453</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4163496072.24683</v>
+        <v>4875259870.61273</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1328408775740126</v>
+        <v>0.1222968874886089</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04411022415989457</v>
+        <v>0.03999510955604909</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>40</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2081748062.547949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2637492118.186594</v>
+        <v>3251428838.51986</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1506220544416329</v>
+        <v>0.15790743562114</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02479354646415581</v>
+        <v>0.02988914652004731</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>44</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1318746115.554904</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1003604227.361141</v>
+        <v>1250587305.364022</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1228394541244808</v>
+        <v>0.1563604702792791</v>
       </c>
       <c r="G19" t="n">
-        <v>0.018625510588171</v>
+        <v>0.02730932146884542</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>501802143.731683</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2501140680.530543</v>
+        <v>2293628593.218438</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1240986793910226</v>
+        <v>0.09855192855202277</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02878543376461148</v>
+        <v>0.03151050915438045</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1250570313.187846</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2014899451.751956</v>
+        <v>2291812585.973437</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07426317021328428</v>
+        <v>0.06610757825567452</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03353901013140678</v>
+        <v>0.03788234439240656</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1007449760.374052</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3193852348.620204</v>
+        <v>3917209089.840184</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1147274411954795</v>
+        <v>0.1361303945369745</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05222731789585029</v>
+        <v>0.04246534168333198</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>37</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1596926224.189527</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1479731529.31074</v>
+        <v>1540678732.778139</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1561982773849192</v>
+        <v>0.1795576878355944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04393848361890457</v>
+        <v>0.0452828997420235</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>739865753.9622197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2712836793.883437</v>
+        <v>2538839426.286335</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1386270854519384</v>
+        <v>0.10059487359915</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02584806061179403</v>
+        <v>0.0339322749794508</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>40</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1356418451.455474</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>976455894.6622837</v>
+        <v>1137410380.592763</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09967402326479785</v>
+        <v>0.0772886432205569</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03003935393314212</v>
+        <v>0.02897084132334794</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>488228016.6838785</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>962284262.7058616</v>
+        <v>1429789876.094712</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08930579049606897</v>
+        <v>0.09477281432498721</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03415683558922805</v>
+        <v>0.02754595474430034</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>481142094.1605849</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4274281953.473059</v>
+        <v>3217276177.027714</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09536331218713816</v>
+        <v>0.1206984843838058</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01806121879405316</v>
+        <v>0.02428669613145963</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2137140973.207987</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2825823575.186247</v>
+        <v>3388314086.358186</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1482890610834534</v>
+        <v>0.09804335176545739</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04009845553107164</v>
+        <v>0.03704017971060283</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>44</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1412911783.642542</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4611177960.080098</v>
+        <v>5149833195.382602</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1231285065275562</v>
+        <v>0.1502871766731279</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0307519162637707</v>
+        <v>0.02867949510252235</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>63</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2305588954.499743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2183133857.326209</v>
+        <v>2099528563.582278</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1138832840035384</v>
+        <v>0.1158656424870633</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03027078993727941</v>
+        <v>0.03982690099307193</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1091566986.933383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1035828619.491219</v>
+        <v>1066110159.90859</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07237230059193035</v>
+        <v>0.07493682188486092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04834973566758822</v>
+        <v>0.04502296104289614</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>517914299.7926131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1884450040.80773</v>
+        <v>1281251822.689722</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09861170872042091</v>
+        <v>0.1104525054489005</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03258324152567783</v>
+        <v>0.0330153129520992</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>942225168.3337051</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2829644680.430969</v>
+        <v>2910907824.452135</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1516549760100451</v>
+        <v>0.1517458564239913</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05054937870307578</v>
+        <v>0.06086210150062323</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>40</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1414822350.311371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1078966485.05971</v>
+        <v>1456353215.910388</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09578397258150415</v>
+        <v>0.09393585179272924</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02711106659655701</v>
+        <v>0.02814325017377232</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>539483267.3924786</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1180563489.904816</v>
+        <v>1111375383.497898</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1079260535490343</v>
+        <v>0.1167010402701267</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03151613445972833</v>
+        <v>0.02942490341263528</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>590281723.8873755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3002490425.086664</v>
+        <v>2417640111.201632</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1450017702256141</v>
+        <v>0.1559168154748846</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0195533842833142</v>
+        <v>0.02832709657511129</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1501245194.200876</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2598366535.054157</v>
+        <v>2827957986.227616</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0709537809826269</v>
+        <v>0.07429890059232083</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02831210083189514</v>
+        <v>0.03273642283022409</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>36</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1299183377.103089</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1650232490.802063</v>
+        <v>2101737978.7689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1169112941506269</v>
+        <v>0.09203811946225131</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03225568975284551</v>
+        <v>0.03174691052140557</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>825116273.3920305</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1392633931.192549</v>
+        <v>1369026174.968458</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1904421050489312</v>
+        <v>0.1939357394004341</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0317511161937375</v>
+        <v>0.03022879219269033</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>696317052.294587</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1249854070.438593</v>
+        <v>1181450286.552303</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1529930287783126</v>
+        <v>0.1595763626876932</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05150366890085458</v>
+        <v>0.03775807571060602</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>624927063.9688836</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2850908345.021515</v>
+        <v>2778707278.105129</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1157897151154166</v>
+        <v>0.1005596690172814</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03460048632225155</v>
+        <v>0.03828867444458747</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>33</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1425454163.396683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3310481121.477425</v>
+        <v>4104710069.86154</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08612455114174032</v>
+        <v>0.112413847679034</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03115153290318267</v>
+        <v>0.03490360592095595</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1655240542.499395</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3060294362.914576</v>
+        <v>2727969178.342803</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1447679919157964</v>
+        <v>0.1512697943493833</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01781770769934765</v>
+        <v>0.02174624239396225</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>44</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1530147173.740298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2282986921.488599</v>
+        <v>2270575314.286622</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07842002545675343</v>
+        <v>0.06796113099927681</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03698175994824621</v>
+        <v>0.03577953407383386</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1141493623.497454</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1824888703.289964</v>
+        <v>2036934370.766098</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1746286551829147</v>
+        <v>0.1239636388643909</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03452794913414275</v>
+        <v>0.04960654965928747</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>912444324.8093748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3917217128.945987</v>
+        <v>5480810111.063955</v>
       </c>
       <c r="F46" t="n">
-        <v>0.117564303855622</v>
+        <v>0.1172295347594375</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04953533368609772</v>
+        <v>0.0546947644337728</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>48</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1958608529.215487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5042155337.061856</v>
+        <v>4834527288.679801</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1520992199092496</v>
+        <v>0.1595679636269902</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04702288771057025</v>
+        <v>0.05197130761210406</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>36</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2521077726.661497</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3789132868.443843</v>
+        <v>3939908591.997871</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08695973937746272</v>
+        <v>0.09577931882714971</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02446347698118821</v>
+        <v>0.02870327174468172</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>45</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1894566480.788704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1767206575.706694</v>
+        <v>1339226270.067783</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1348271646862734</v>
+        <v>0.1204476886296199</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03601910116868531</v>
+        <v>0.04328362868149483</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>883603278.285733</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2846737465.913839</v>
+        <v>3817733754.642233</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1097278875852743</v>
+        <v>0.1721049988629378</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04286526628334566</v>
+        <v>0.05015486323952813</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>46</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1423368803.646438</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1080181754.409693</v>
+        <v>982354744.8887845</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1641998178366634</v>
+        <v>0.1693904851541907</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05370388046046369</v>
+        <v>0.04377453469322651</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>540090948.1398463</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3604303586.015762</v>
+        <v>4738239879.762582</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1236785096851346</v>
+        <v>0.1211633375431238</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04079199387173481</v>
+        <v>0.03893146924562573</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>56</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1802151872.731729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3807569070.306957</v>
+        <v>2688190052.163373</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1295771569336905</v>
+        <v>0.1684599869279005</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03009057300132252</v>
+        <v>0.02679585858349421</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>39</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1903784511.815019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4583688464.890599</v>
+        <v>4870673352.49703</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1230459346142585</v>
+        <v>0.1272641124499424</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03927694649547867</v>
+        <v>0.04375174319673625</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2291844342.309391</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3367762249.36197</v>
+        <v>4306607708.391058</v>
       </c>
       <c r="F55" t="n">
-        <v>0.144221459337275</v>
+        <v>0.2007934373239653</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02928294422569528</v>
+        <v>0.02218310562792812</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1683881071.660019</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1883477637.630269</v>
+        <v>1775485725.594318</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1510846024449116</v>
+        <v>0.1507940498340127</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05583075119960838</v>
+        <v>0.05001598439007256</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>941738804.2058489</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2898215132.748509</v>
+        <v>3026608429.177165</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1726144100906143</v>
+        <v>0.1245389068573508</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0264898236598981</v>
+        <v>0.02147938227839444</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>43</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1449107562.182085</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1640314507.416652</v>
+        <v>1517573352.089456</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1354634046911468</v>
+        <v>0.1962251864349785</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02714186560082943</v>
+        <v>0.0240758734139981</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>820157271.9889355</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3943950043.678706</v>
+        <v>4842120005.266456</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1221577461921203</v>
+        <v>0.1140397672860101</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03766418749068742</v>
+        <v>0.03064800741465438</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>39</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1971975000.421317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2766304883.980512</v>
+        <v>3465165003.62381</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1753083808896634</v>
+        <v>0.1961251516192754</v>
       </c>
       <c r="G60" t="n">
-        <v>0.030642904072911</v>
+        <v>0.02391630824564554</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1383152487.790357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2880551386.211177</v>
+        <v>3283310452.009371</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1688108702977595</v>
+        <v>0.1356090718864136</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02145386819866658</v>
+        <v>0.03002543556659998</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>47</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1440275684.793553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1284314392.89569</v>
+        <v>2031867109.267775</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1726021960975566</v>
+        <v>0.1576156420233638</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03434825544205953</v>
+        <v>0.03764489190433848</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>642157147.113639</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4919816538.709446</v>
+        <v>4278460313.394444</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08259714954166832</v>
+        <v>0.06718735303608404</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03113691282139452</v>
+        <v>0.0298224141503798</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>39</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2459908290.635994</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4155374968.877637</v>
+        <v>4043593601.094252</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1907939359091435</v>
+        <v>0.1606348483358655</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03156061410456858</v>
+        <v>0.0287444408678851</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>42</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2077687531.18575</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3804918811.77804</v>
+        <v>5711658952.710078</v>
       </c>
       <c r="F65" t="n">
-        <v>0.144980189918716</v>
+        <v>0.1702242022651032</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02448383084488593</v>
+        <v>0.02334153046478735</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>49</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1902459436.063508</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4717240917.505121</v>
+        <v>5594586932.982283</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1056328112981963</v>
+        <v>0.1400890539452173</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03761209791184947</v>
+        <v>0.05084349330556317</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>39</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2358620470.693449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2855680270.887553</v>
+        <v>2317865169.523366</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09785276542296119</v>
+        <v>0.1028305364091065</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04825378756061887</v>
+        <v>0.04294843757538414</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>43</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1427840165.916877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5056528270.546144</v>
+        <v>3812882926.984454</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1567794995422082</v>
+        <v>0.116127582212848</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05027764577161501</v>
+        <v>0.03898609163233292</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>43</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2528264195.03157</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1698746077.273421</v>
+        <v>1508535295.292571</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1691716344863336</v>
+        <v>0.1486386621673387</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05036915632758696</v>
+        <v>0.04174575158341084</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>849373004.6169435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3007401679.110842</v>
+        <v>3640238971.47748</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1004071804066323</v>
+        <v>0.09106852823316319</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03538052397068982</v>
+        <v>0.04686443645886445</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>39</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1503700816.962628</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4346494799.205853</v>
+        <v>3948512663.550796</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1463945400383956</v>
+        <v>0.1743041127983278</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02708509610738358</v>
+        <v>0.02128042359419668</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>49</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2173247456.465382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1590406524.615953</v>
+        <v>1998614091.856515</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07038494632947093</v>
+        <v>0.09801182926387284</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04825278825625405</v>
+        <v>0.04139357252613991</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>795203274.6796621</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2685882314.283201</v>
+        <v>2584703411.143175</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1127912532261816</v>
+        <v>0.07129588815183045</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0400782809357396</v>
+        <v>0.03753774128790768</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>51</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1342941181.848976</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3199403369.099478</v>
+        <v>3823772577.11106</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1280723290773778</v>
+        <v>0.1421158706342155</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02290644459699307</v>
+        <v>0.02904336914880698</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>46</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1599701732.629982</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2343292028.105089</v>
+        <v>2442063469.94225</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1443045522572378</v>
+        <v>0.108195366545773</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0241579957842073</v>
+        <v>0.03729827280825049</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1171645945.974279</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3781896621.991042</v>
+        <v>4981471478.016674</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08504636195409906</v>
+        <v>0.08808031088480187</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02568884395294393</v>
+        <v>0.02079829312533677</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>30</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1890948286.514683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1840465018.983044</v>
+        <v>1591734739.562501</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1684853663798551</v>
+        <v>0.1830080874401783</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0233055894745174</v>
+        <v>0.02670183511521457</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>920232547.4406397</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3498771328.610659</v>
+        <v>4026926785.505171</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09670023292226343</v>
+        <v>0.09003772152158958</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04093077497206069</v>
+        <v>0.05247211507964748</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>47</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1749385665.860358</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1724941385.767583</v>
+        <v>1749731311.501721</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1182245525902817</v>
+        <v>0.1456875723948771</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0329959375982319</v>
+        <v>0.03600454623257993</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>862470766.3658438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3395443367.508763</v>
+        <v>4233919741.061337</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09169192642099418</v>
+        <v>0.08655617019742042</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03831559284252467</v>
+        <v>0.02557839667239005</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>28</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1697721653.116776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3882183829.423682</v>
+        <v>4479359426.915356</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1316104350861255</v>
+        <v>0.09517991683006036</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02113450592314458</v>
+        <v>0.0286879936070468</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1941091873.512495</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4311847831.058736</v>
+        <v>5070019984.816357</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1861187355310624</v>
+        <v>0.1986404100500461</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02715240574378021</v>
+        <v>0.01837078859490942</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>48</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2155923937.804235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2491566710.463744</v>
+        <v>2311077467.853387</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1497819422465319</v>
+        <v>0.1256106334900491</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04430171264379372</v>
+        <v>0.04003825944581091</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1245783401.635998</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2474893230.118221</v>
+        <v>2536067022.845475</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1161642433186664</v>
+        <v>0.1169317740902998</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03218561729285835</v>
+        <v>0.0398531632790288</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1237446550.454134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2595388623.066216</v>
+        <v>3622587074.781646</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1381980119105919</v>
+        <v>0.1143105911216743</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05230430608333374</v>
+        <v>0.04192992220036856</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>51</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1297694326.985066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2727818909.109958</v>
+        <v>2471528358.72219</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1169755481033803</v>
+        <v>0.1181618013088604</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02162264518455973</v>
+        <v>0.02735662290629006</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1363909583.343317</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1338878852.706331</v>
+        <v>1277702823.633175</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1158007525395902</v>
+        <v>0.1285352710276202</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03830749650795871</v>
+        <v>0.02898904307451947</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>669439517.4867713</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2966669746.367727</v>
+        <v>3020321870.320032</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1617135624296001</v>
+        <v>0.1075070070634858</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0375773497091469</v>
+        <v>0.03554909267848549</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>53</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1483334900.284994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3032578923.497828</v>
+        <v>2647963504.355102</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1548026800846516</v>
+        <v>0.1051124052992283</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03176969616415565</v>
+        <v>0.0340352194936409</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>47</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1516289497.424376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1874847462.970237</v>
+        <v>1544845265.037478</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08946916512114204</v>
+        <v>0.08698013116279117</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05180428912578369</v>
+        <v>0.04300575823814193</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>937423778.7601873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1309640283.522501</v>
+        <v>1377835400.907455</v>
       </c>
       <c r="F91" t="n">
-        <v>0.167956417505511</v>
+        <v>0.1725300234612017</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05843756099092249</v>
+        <v>0.04782517468408667</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>654820205.9979564</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1822966447.074023</v>
+        <v>2987450687.363406</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09973561502010295</v>
+        <v>0.08409242450558506</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02938921048562622</v>
+        <v>0.04686325104209477</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>32</v>
-      </c>
-      <c r="J92" t="n">
-        <v>911483156.2886659</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3989501871.905592</v>
+        <v>3430535992.217717</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09287193662323402</v>
+        <v>0.08680001310065355</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04095832157211433</v>
+        <v>0.04789673046740385</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1994750937.181597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2405490628.614753</v>
+        <v>2037403420.736481</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1096558759312168</v>
+        <v>0.1079179195791835</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02987395782162084</v>
+        <v>0.03289745511697661</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1202745365.361779</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2578358143.321537</v>
+        <v>2052033537.026347</v>
       </c>
       <c r="F95" t="n">
-        <v>0.127469597843249</v>
+        <v>0.09425617594480666</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03239910604393278</v>
+        <v>0.05208230975008613</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>32</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1289179102.002888</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1978801129.508609</v>
+        <v>2045948803.78837</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1417830259853978</v>
+        <v>0.09544444647398513</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03189940516928117</v>
+        <v>0.04357525239515576</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>989400553.9415603</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3974121120.484777</v>
+        <v>4507646725.150514</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1356081134097698</v>
+        <v>0.1447040255617828</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01778092262610442</v>
+        <v>0.02766577358652636</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>43</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1987060614.495169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3505617377.943079</v>
+        <v>2736592379.758369</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09388141562503909</v>
+        <v>0.111587840688189</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02932118258500151</v>
+        <v>0.03274480150710882</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>36</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1752808707.908638</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3434026858.930492</v>
+        <v>2094557241.613769</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1197687145246316</v>
+        <v>0.1392887936631423</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0231364146910445</v>
+        <v>0.03130843864917845</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>42</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1717013446.812372</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3663153278.512535</v>
+        <v>3824392871.05585</v>
       </c>
       <c r="F100" t="n">
-        <v>0.126578218377214</v>
+        <v>0.1581614305634548</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01850695083247304</v>
+        <v>0.02391411170765275</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>41</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1831576682.985694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2916123408.816197</v>
+        <v>2434885000.213255</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1575655283252691</v>
+        <v>0.1402900959859638</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04612574407723682</v>
+        <v>0.05011949919095288</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>55</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1458061782.371653</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_135.xlsx
+++ b/output/fit_clients/fit_round_135.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1811461526.990068</v>
+        <v>1636906062.970854</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1033277702903565</v>
+        <v>0.07126783446387444</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03561830423653219</v>
+        <v>0.03494568879260504</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1601173807.773299</v>
+        <v>2413359988.031892</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1229094285791682</v>
+        <v>0.1295842800354709</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0394670752626268</v>
+        <v>0.04096578074336466</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4972393856.078135</v>
+        <v>3461563678.464201</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1167900028173954</v>
+        <v>0.1618476795337585</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02772780091490589</v>
+        <v>0.02884998021154401</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4186854091.008592</v>
+        <v>2882016532.934913</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08944997607948564</v>
+        <v>0.09526902142218857</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03162073433251848</v>
+        <v>0.03244296554856715</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2402825014.574771</v>
+        <v>2812124299.954607</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1390909638813542</v>
+        <v>0.1046573447222683</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05064942215823049</v>
+        <v>0.03715501660967152</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2918540822.865105</v>
+        <v>2685029567.702454</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08453447862541247</v>
+        <v>0.0982868165850086</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03878300835245204</v>
+        <v>0.03310525692607426</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3891286055.4056</v>
+        <v>3029593627.992115</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1576092654404762</v>
+        <v>0.1639065059310927</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02994801194036534</v>
+        <v>0.02997637077173302</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2228513384.139318</v>
+        <v>1979652482.964351</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1524380922110368</v>
+        <v>0.1351226370554481</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03441721834580106</v>
+        <v>0.02739868427580361</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4135214338.966825</v>
+        <v>3837979136.347147</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1784666724160884</v>
+        <v>0.1719161064371288</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05159680803735115</v>
+        <v>0.0449953952617673</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3786890062.885581</v>
+        <v>3077371844.870798</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1717113548858013</v>
+        <v>0.1840969989015883</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03305529887439174</v>
+        <v>0.04598464503770599</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2968391257.292996</v>
+        <v>2823517922.252635</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1200034480872965</v>
+        <v>0.1295420123805914</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03918442599328913</v>
+        <v>0.03626237824462873</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4525439339.935419</v>
+        <v>3580633719.61129</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06970188133580896</v>
+        <v>0.06402959506482218</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02712234490918641</v>
+        <v>0.02694669773366681</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2886548208.961533</v>
+        <v>3872832756.839768</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1465749357798801</v>
+        <v>0.1428807524176988</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03223912952974111</v>
+        <v>0.03420047429702278</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1843513461.064806</v>
+        <v>1614349082.00757</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09246495368357335</v>
+        <v>0.07626312112361015</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03837326552145399</v>
+        <v>0.0393442026160119</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2299394868.220201</v>
+        <v>2601220453.59004</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1079021287056803</v>
+        <v>0.07878021682516079</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04072416806109501</v>
+        <v>0.04623821739580516</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4875259870.61273</v>
+        <v>4490649990.494933</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1222968874886089</v>
+        <v>0.1711273181679848</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03999510955604909</v>
+        <v>0.03436902701045892</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3251428838.51986</v>
+        <v>3670935635.705285</v>
       </c>
       <c r="F18" t="n">
-        <v>0.15790743562114</v>
+        <v>0.1702828190669262</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02988914652004731</v>
+        <v>0.03431164368460531</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1250587305.364022</v>
+        <v>1285366526.288515</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1563604702792791</v>
+        <v>0.1369734026817727</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02730932146884542</v>
+        <v>0.02486481782027669</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2293628593.218438</v>
+        <v>2316304051.64025</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09855192855202277</v>
+        <v>0.1442109600398206</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03151050915438045</v>
+        <v>0.02092822400861518</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2291812585.973437</v>
+        <v>2164991329.992979</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06610757825567452</v>
+        <v>0.1019842864642453</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03788234439240656</v>
+        <v>0.03168671600920806</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3917209089.840184</v>
+        <v>2621541781.080649</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1361303945369745</v>
+        <v>0.1011893852670901</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04246534168333198</v>
+        <v>0.05170612395033748</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1540678732.778139</v>
+        <v>1282626195.47882</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1795576878355944</v>
+        <v>0.145137259756706</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0452828997420235</v>
+        <v>0.03526608568592707</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2538839426.286335</v>
+        <v>3027782780.055219</v>
       </c>
       <c r="F24" t="n">
-        <v>0.10059487359915</v>
+        <v>0.09703833951841606</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0339322749794508</v>
+        <v>0.03324998169837366</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1137410380.592763</v>
+        <v>958941785.7369905</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0772886432205569</v>
+        <v>0.1109212653153562</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02897084132334794</v>
+        <v>0.02615744110831929</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1429789876.094712</v>
+        <v>918008476.9969134</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09477281432498721</v>
+        <v>0.08673040250024222</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02754595474430034</v>
+        <v>0.0384470777285363</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3217276177.027714</v>
+        <v>3687864896.977472</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1206984843838058</v>
+        <v>0.1129895704155003</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02428669613145963</v>
+        <v>0.02489990073888561</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3388314086.358186</v>
+        <v>2565669881.327596</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09804335176545739</v>
+        <v>0.09314360229090084</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03704017971060283</v>
+        <v>0.04558070787118353</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5149833195.382602</v>
+        <v>5818971853.994711</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1502871766731279</v>
+        <v>0.09545466103501721</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02867949510252235</v>
+        <v>0.04102839337562486</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2099528563.582278</v>
+        <v>2206182479.580455</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1158656424870633</v>
+        <v>0.1367006414833792</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03982690099307193</v>
+        <v>0.02690825260503683</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1066110159.90859</v>
+        <v>1487680803.05854</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07493682188486092</v>
+        <v>0.07153302949203688</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04502296104289614</v>
+        <v>0.03508675941840191</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1281251822.689722</v>
+        <v>1383072024.373074</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1104525054489005</v>
+        <v>0.1188145586694177</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0330153129520992</v>
+        <v>0.03286312456410977</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2910907824.452135</v>
+        <v>2151897498.483557</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1517458564239913</v>
+        <v>0.1564151271560171</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06086210150062323</v>
+        <v>0.05915084555820812</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1456353215.910388</v>
+        <v>1550177202.433299</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09393585179272924</v>
+        <v>0.1179890608435831</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02814325017377232</v>
+        <v>0.01896251849029486</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1111375383.497898</v>
+        <v>1246074371.450521</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1167010402701267</v>
+        <v>0.1131962188685485</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02942490341263528</v>
+        <v>0.03305960700743169</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2417640111.201632</v>
+        <v>2401362751.972625</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1559168154748846</v>
+        <v>0.1126401033358497</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02832709657511129</v>
+        <v>0.01820518583314438</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2827957986.227616</v>
+        <v>1936526207.320441</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07429890059232083</v>
+        <v>0.09787783244550753</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03273642283022409</v>
+        <v>0.03687739252872081</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2101737978.7689</v>
+        <v>1951283314.433914</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09203811946225131</v>
+        <v>0.08958849075121804</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03174691052140557</v>
+        <v>0.02919689963684778</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1369026174.968458</v>
+        <v>1489762959.251264</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1939357394004341</v>
+        <v>0.1670234361929542</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03022879219269033</v>
+        <v>0.02753241695160636</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1181450286.552303</v>
+        <v>1291312055.528914</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1595763626876932</v>
+        <v>0.104236129236885</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03775807571060602</v>
+        <v>0.03784979895255131</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2778707278.105129</v>
+        <v>1925638791.081541</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1005596690172814</v>
+        <v>0.1552085761811292</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03828867444458747</v>
+        <v>0.04333275807889517</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4104710069.86154</v>
+        <v>3947170598.955325</v>
       </c>
       <c r="F42" t="n">
-        <v>0.112413847679034</v>
+        <v>0.1251410489485816</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03490360592095595</v>
+        <v>0.04601487857907703</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2727969178.342803</v>
+        <v>1962820324.352794</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1512697943493833</v>
+        <v>0.1759175880266823</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02174624239396225</v>
+        <v>0.02385831826100976</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2270575314.286622</v>
+        <v>2037058585.16547</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06796113099927681</v>
+        <v>0.08891650194524134</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03577953407383386</v>
+        <v>0.03239872732175277</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2036934370.766098</v>
+        <v>2514724467.76665</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1239636388643909</v>
+        <v>0.1214720740168815</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04960654965928747</v>
+        <v>0.04099033564758967</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5480810111.063955</v>
+        <v>4751000712.51302</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1172295347594375</v>
+        <v>0.1401666933926192</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0546947644337728</v>
+        <v>0.03828059983425144</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4834527288.679801</v>
+        <v>3987038207.924472</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1595679636269902</v>
+        <v>0.1636665639233736</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05197130761210406</v>
+        <v>0.03926290243795698</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3939908591.997871</v>
+        <v>3041471960.848151</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09577931882714971</v>
+        <v>0.08380774648727651</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02870327174468172</v>
+        <v>0.03228422555824152</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1339226270.067783</v>
+        <v>1727288812.128456</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1204476886296199</v>
+        <v>0.1322941115433726</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04328362868149483</v>
+        <v>0.03536950832252896</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3817733754.642233</v>
+        <v>4077186304.766246</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1721049988629378</v>
+        <v>0.1219508077269521</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05015486323952813</v>
+        <v>0.03567699837289475</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>982354744.8887845</v>
+        <v>1422049231.117251</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1693904851541907</v>
+        <v>0.139612416362652</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04377453469322651</v>
+        <v>0.03477523363061365</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4738239879.762582</v>
+        <v>3399426880.171475</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1211633375431238</v>
+        <v>0.1349547637453357</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03893146924562573</v>
+        <v>0.05192742478438987</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2688190052.163373</v>
+        <v>2585739382.130437</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1684599869279005</v>
+        <v>0.1819643705104529</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02679585858349421</v>
+        <v>0.03495106865770181</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4870673352.49703</v>
+        <v>3062981515.981861</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1272641124499424</v>
+        <v>0.1551107227548628</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04375174319673625</v>
+        <v>0.03424094148032913</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4306607708.391058</v>
+        <v>3276416867.113976</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2007934373239653</v>
+        <v>0.2224408078289248</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02218310562792812</v>
+        <v>0.02483090221185538</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1775485725.594318</v>
+        <v>1177837008.749331</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1507940498340127</v>
+        <v>0.1568316925654096</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05001598439007256</v>
+        <v>0.05313331933953243</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3026608429.177165</v>
+        <v>3631265456.316382</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1245389068573508</v>
+        <v>0.1555632594106708</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02147938227839444</v>
+        <v>0.02753765667845301</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1517573352.089456</v>
+        <v>1267165593.081492</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1962251864349785</v>
+        <v>0.2017082169962693</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0240758734139981</v>
+        <v>0.02664455181629515</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4842120005.266456</v>
+        <v>4065669860.639771</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1140397672860101</v>
+        <v>0.1065334686913948</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03064800741465438</v>
+        <v>0.04485020655548021</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3465165003.62381</v>
+        <v>2894060802.206471</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1961251516192754</v>
+        <v>0.1251225168297534</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02391630824564554</v>
+        <v>0.02752794070397437</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3283310452.009371</v>
+        <v>2830597931.278291</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1356090718864136</v>
+        <v>0.1143874723287143</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03002543556659998</v>
+        <v>0.0294048115025713</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2031867109.267775</v>
+        <v>1505582195.817686</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1576156420233638</v>
+        <v>0.1467733233398393</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03764489190433848</v>
+        <v>0.04837398574881587</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4278460313.394444</v>
+        <v>3966917555.12795</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06718735303608404</v>
+        <v>0.1066715330288015</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0298224141503798</v>
+        <v>0.03570094147809749</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4043593601.094252</v>
+        <v>5021064600.48608</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1606348483358655</v>
+        <v>0.1541854391008151</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0287444408678851</v>
+        <v>0.03284438350211453</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5711658952.710078</v>
+        <v>5852944843.363382</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1702242022651032</v>
+        <v>0.1442159113761789</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02334153046478735</v>
+        <v>0.02349308077262861</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5594586932.982283</v>
+        <v>5101340717.517218</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1400890539452173</v>
+        <v>0.142783507113999</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05084349330556317</v>
+        <v>0.04592175563213879</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2317865169.523366</v>
+        <v>3242476181.31928</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1028305364091065</v>
+        <v>0.08783420204392946</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04294843757538414</v>
+        <v>0.03733964049207632</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3812882926.984454</v>
+        <v>5484575406.062344</v>
       </c>
       <c r="F68" t="n">
-        <v>0.116127582212848</v>
+        <v>0.1173938865423332</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03898609163233292</v>
+        <v>0.03874607985611844</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1508535295.292571</v>
+        <v>1883819949.173535</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1486386621673387</v>
+        <v>0.1540146292425218</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04174575158341084</v>
+        <v>0.04493942335493708</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3640238971.47748</v>
+        <v>2786584833.423639</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09106852823316319</v>
+        <v>0.08697792312309716</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04686443645886445</v>
+        <v>0.04299768707415588</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3948512663.550796</v>
+        <v>4742520151.91293</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1743041127983278</v>
+        <v>0.1154150062135691</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02128042359419668</v>
+        <v>0.03132252269483252</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1998614091.856515</v>
+        <v>1583151333.779771</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09801182926387284</v>
+        <v>0.1034709570287703</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04139357252613991</v>
+        <v>0.03719852962247241</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2584703411.143175</v>
+        <v>3137231563.953001</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07129588815183045</v>
+        <v>0.07611766915762204</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03753774128790768</v>
+        <v>0.03985872499298879</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3823772577.11106</v>
+        <v>2526341591.185549</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1421158706342155</v>
+        <v>0.1449998835785468</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02904336914880698</v>
+        <v>0.02707311745942076</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2442063469.94225</v>
+        <v>2045823625.274503</v>
       </c>
       <c r="F75" t="n">
-        <v>0.108195366545773</v>
+        <v>0.1420996072899561</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03729827280825049</v>
+        <v>0.02710384006875001</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4981471478.016674</v>
+        <v>3590568608.911764</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08808031088480187</v>
+        <v>0.07622210290132202</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02079829312533677</v>
+        <v>0.02189350484389411</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1591734739.562501</v>
+        <v>2215477011.167308</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1830080874401783</v>
+        <v>0.1179019588558022</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02670183511521457</v>
+        <v>0.02114683268521511</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4026926785.505171</v>
+        <v>3305211643.281726</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09003772152158958</v>
+        <v>0.08952545187918146</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05247211507964748</v>
+        <v>0.05589458703960262</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1749731311.501721</v>
+        <v>1899574146.157803</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1456875723948771</v>
+        <v>0.1339074331242339</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03600454623257993</v>
+        <v>0.04001737860530802</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4233919741.061337</v>
+        <v>4683910604.488681</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08655617019742042</v>
+        <v>0.07833256729320032</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02557839667239005</v>
+        <v>0.02738785391688275</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4479359426.915356</v>
+        <v>3840514133.773285</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09517991683006036</v>
+        <v>0.1253446423726728</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0286879936070468</v>
+        <v>0.03094144650190912</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5070019984.816357</v>
+        <v>4082861647.809957</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1986404100500461</v>
+        <v>0.1597310522669549</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01837078859490942</v>
+        <v>0.02889022761584259</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2311077467.853387</v>
+        <v>1591083441.506753</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1256106334900491</v>
+        <v>0.1053584826030692</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04003825944581091</v>
+        <v>0.04488051281102395</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2536067022.845475</v>
+        <v>2279306362.910328</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1169317740902998</v>
+        <v>0.09328718686166659</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0398531632790288</v>
+        <v>0.04288050025255671</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3622587074.781646</v>
+        <v>2773536400.897634</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1143105911216743</v>
+        <v>0.1335396532308883</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04192992220036856</v>
+        <v>0.03483807990530146</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2471528358.72219</v>
+        <v>2424412751.753536</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1181618013088604</v>
+        <v>0.1662391460552571</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02735662290629006</v>
+        <v>0.02492592409996724</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1277702823.633175</v>
+        <v>1192579345.847075</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1285352710276202</v>
+        <v>0.1455441128031604</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02898904307451947</v>
+        <v>0.0424214928564885</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3020321870.320032</v>
+        <v>2937164174.547185</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1075070070634858</v>
+        <v>0.146016045330614</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03554909267848549</v>
+        <v>0.02967821352078513</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2647963504.355102</v>
+        <v>3138598468.743334</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1051124052992283</v>
+        <v>0.149909057026218</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0340352194936409</v>
+        <v>0.03404589938352116</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1544845265.037478</v>
+        <v>1531696014.924092</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08698013116279117</v>
+        <v>0.1004436883430036</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04300575823814193</v>
+        <v>0.04048022382499045</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1377835400.907455</v>
+        <v>1558399877.044446</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1725300234612017</v>
+        <v>0.1763198252157565</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04782517468408667</v>
+        <v>0.06199279302322631</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2987450687.363406</v>
+        <v>1844710121.03897</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08409242450558506</v>
+        <v>0.08291363971741525</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04686325104209477</v>
+        <v>0.04359157594476636</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3430535992.217717</v>
+        <v>4931639530.059763</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08680001310065355</v>
+        <v>0.1210016307682667</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04789673046740385</v>
+        <v>0.05376124850731027</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2037403420.736481</v>
+        <v>1917757117.104485</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1079179195791835</v>
+        <v>0.1452443345645704</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03289745511697661</v>
+        <v>0.03351238730971534</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2052033537.026347</v>
+        <v>3095597422.209025</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09425617594480666</v>
+        <v>0.1330906458380851</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05208230975008613</v>
+        <v>0.04236346392835753</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2045948803.78837</v>
+        <v>2324682501.943622</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09544444647398513</v>
+        <v>0.1153765834284768</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04357525239515576</v>
+        <v>0.03257474335847783</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4507646725.150514</v>
+        <v>4380249974.448858</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1447040255617828</v>
+        <v>0.164247513411763</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02766577358652636</v>
+        <v>0.02711516724971438</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2736592379.758369</v>
+        <v>3610477274.45751</v>
       </c>
       <c r="F98" t="n">
-        <v>0.111587840688189</v>
+        <v>0.08345291936093464</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03274480150710882</v>
+        <v>0.0229627683071327</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2094557241.613769</v>
+        <v>2803564462.788353</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1392887936631423</v>
+        <v>0.1153044716656126</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03130843864917845</v>
+        <v>0.02350201492554996</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3824392871.05585</v>
+        <v>3891551740.918327</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1581614305634548</v>
+        <v>0.1712939447215246</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02391411170765275</v>
+        <v>0.02333467829295917</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2434885000.213255</v>
+        <v>2172591381.555136</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1402900959859638</v>
+        <v>0.1378517160162093</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05011949919095288</v>
+        <v>0.0444097517007633</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_135.xlsx
+++ b/output/fit_clients/fit_round_135.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1636906062.970854</v>
+        <v>1931088066.264997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07126783446387444</v>
+        <v>0.09544412197308032</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03494568879260504</v>
+        <v>0.0279233529682727</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2413359988.031892</v>
+        <v>2232915257.306475</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1295842800354709</v>
+        <v>0.1466540565396662</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04096578074336466</v>
+        <v>0.03632846451636663</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3461563678.464201</v>
+        <v>5186013854.843909</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1618476795337585</v>
+        <v>0.1078951724372229</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02884998021154401</v>
+        <v>0.02758932659512493</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>78</v>
+      </c>
+      <c r="J4" t="n">
+        <v>135</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2882016532.934913</v>
+        <v>3768047528.396367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09526902142218857</v>
+        <v>0.07581984906477515</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03244296554856715</v>
+        <v>0.04820265352973399</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55</v>
+      </c>
+      <c r="J5" t="n">
+        <v>135</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2812124299.954607</v>
+        <v>2471156514.716799</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1046573447222683</v>
+        <v>0.1459388630838309</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03715501660967152</v>
+        <v>0.05069207361560586</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2685029567.702454</v>
+        <v>3116769624.066418</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0982868165850086</v>
+        <v>0.09802092063025154</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03310525692607426</v>
+        <v>0.03941416332746606</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3029593627.992115</v>
+        <v>3155522146.278032</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1639065059310927</v>
+        <v>0.2084473133325938</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02997637077173302</v>
+        <v>0.0301925710960815</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>40</v>
+      </c>
+      <c r="J8" t="n">
+        <v>133</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1979652482.964351</v>
+        <v>1909759504.747975</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1351226370554481</v>
+        <v>0.1954584894499326</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02739868427580361</v>
+        <v>0.02833423987497629</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3837979136.347147</v>
+        <v>5383102764.704592</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1719161064371288</v>
+        <v>0.1621144837257971</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0449953952617673</v>
+        <v>0.04387711539701935</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>123</v>
+      </c>
+      <c r="J10" t="n">
+        <v>135</v>
+      </c>
+      <c r="K10" t="n">
+        <v>158.5242703176085</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3077371844.870798</v>
+        <v>3485027405.00939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1840969989015883</v>
+        <v>0.1862711425142975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04598464503770599</v>
+        <v>0.03609910213291467</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>59</v>
+      </c>
+      <c r="J11" t="n">
+        <v>134</v>
+      </c>
+      <c r="K11" t="n">
+        <v>130.8841129643063</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2823517922.252635</v>
+        <v>3323763756.731996</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1295420123805914</v>
+        <v>0.1542797164893469</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03626237824462873</v>
+        <v>0.03432145781147537</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3580633719.61129</v>
+        <v>5260866438.730499</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06402959506482218</v>
+        <v>0.07439512630630865</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02694669773366681</v>
+        <v>0.01943570211695998</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>66</v>
+      </c>
+      <c r="J13" t="n">
+        <v>134</v>
+      </c>
+      <c r="K13" t="n">
+        <v>140.7945808722382</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3872832756.839768</v>
+        <v>3035813290.796416</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1428807524176988</v>
+        <v>0.1211810761943312</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03420047429702278</v>
+        <v>0.03165126038339015</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>132</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1614349082.00757</v>
+        <v>1674527646.537407</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07626312112361015</v>
+        <v>0.09659598887591496</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0393442026160119</v>
+        <v>0.04914494871505733</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2601220453.59004</v>
+        <v>1985619550.647196</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07878021682516079</v>
+        <v>0.10787160569277</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04623821739580516</v>
+        <v>0.04097342333036622</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4490649990.494933</v>
+        <v>4326697461.892237</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1711273181679848</v>
+        <v>0.1497360971578305</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03436902701045892</v>
+        <v>0.04746336938471828</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>65</v>
+      </c>
+      <c r="J17" t="n">
+        <v>134</v>
+      </c>
+      <c r="K17" t="n">
+        <v>128.4851041350147</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3670935635.705285</v>
+        <v>3481682279.492569</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1702828190669262</v>
+        <v>0.157809932351885</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03431164368460531</v>
+        <v>0.02317526665776002</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>35</v>
+      </c>
+      <c r="J18" t="n">
+        <v>135</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1285366526.288515</v>
+        <v>1014155260.752243</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1369734026817727</v>
+        <v>0.147611355160277</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02486481782027669</v>
+        <v>0.02111950719656719</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2316304051.64025</v>
+        <v>2530821780.157948</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1442109600398206</v>
+        <v>0.1511091937736198</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02092822400861518</v>
+        <v>0.02917573250522612</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2164991329.992979</v>
+        <v>2067027219.380345</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1019842864642453</v>
+        <v>0.1011898826629754</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03168671600920806</v>
+        <v>0.04474218757224709</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2621541781.080649</v>
+        <v>3343852873.494818</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1011893852670901</v>
+        <v>0.1147814077822368</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05170612395033748</v>
+        <v>0.05650093949040881</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>34</v>
+      </c>
+      <c r="J22" t="n">
+        <v>135</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1282626195.47882</v>
+        <v>1071676796.745896</v>
       </c>
       <c r="F23" t="n">
-        <v>0.145137259756706</v>
+        <v>0.1491134669661116</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03526608568592707</v>
+        <v>0.05232132227947001</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3027782780.055219</v>
+        <v>3803434022.706977</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09703833951841606</v>
+        <v>0.09110139742132171</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03324998169837366</v>
+        <v>0.03139213940204746</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>39</v>
+      </c>
+      <c r="J24" t="n">
+        <v>134</v>
+      </c>
+      <c r="K24" t="n">
+        <v>132.0971189382157</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>958941785.7369905</v>
+        <v>1119494513.327317</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1109212653153562</v>
+        <v>0.1199929586374587</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02615744110831929</v>
+        <v>0.02810222204383269</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>918008476.9969134</v>
+        <v>912938400.0215157</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08673040250024222</v>
+        <v>0.09360749465971756</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0384470777285363</v>
+        <v>0.03221014994058447</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3687864896.977472</v>
+        <v>3144841313.352626</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1129895704155003</v>
+        <v>0.1479153751672082</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02489990073888561</v>
+        <v>0.02228083009031388</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>53</v>
+      </c>
+      <c r="J27" t="n">
+        <v>133</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2565669881.327596</v>
+        <v>2563184745.916326</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09314360229090084</v>
+        <v>0.1126556198501941</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04558070787118353</v>
+        <v>0.04120235643723848</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>130</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5818971853.994711</v>
+        <v>3671456106.362247</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09545466103501721</v>
+        <v>0.1088033364781474</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04102839337562486</v>
+        <v>0.04140499636031617</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>125</v>
+      </c>
+      <c r="J29" t="n">
+        <v>135</v>
+      </c>
+      <c r="K29" t="n">
+        <v>158.4844303483003</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2206182479.580455</v>
+        <v>1641685471.950768</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1367006414833792</v>
+        <v>0.1340464597359566</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02690825260503683</v>
+        <v>0.03346848475981667</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1487680803.05854</v>
+        <v>1410304922.820198</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07153302949203688</v>
+        <v>0.09797426566935739</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03508675941840191</v>
+        <v>0.03766534759092976</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1383072024.373074</v>
+        <v>1692972228.854375</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1188145586694177</v>
+        <v>0.08413398109593177</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03286312456410977</v>
+        <v>0.02703018834873084</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2151897498.483557</v>
+        <v>3029984866.436926</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1564151271560171</v>
+        <v>0.1335509084172088</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05915084555820812</v>
+        <v>0.04713100416318675</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1550177202.433299</v>
+        <v>949736138.9378012</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1179890608435831</v>
+        <v>0.08119136642392941</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01896251849029486</v>
+        <v>0.02475679226679948</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1246074371.450521</v>
+        <v>852645393.6265563</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1131962188685485</v>
+        <v>0.1153692630694699</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03305960700743169</v>
+        <v>0.0401743333076924</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2401362751.972625</v>
+        <v>2687664069.463568</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1126401033358497</v>
+        <v>0.1225044605375459</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01820518583314438</v>
+        <v>0.02549820261581604</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1936526207.320441</v>
+        <v>2161807236.645788</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09787783244550753</v>
+        <v>0.09138100633910838</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03687739252872081</v>
+        <v>0.02951209807614535</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1951283314.433914</v>
+        <v>1749676666.7115</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08958849075121804</v>
+        <v>0.08801719788674997</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02919689963684778</v>
+        <v>0.03490920792528064</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1489762959.251264</v>
+        <v>2175096673.911641</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1670234361929542</v>
+        <v>0.1541520446055735</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02753241695160636</v>
+        <v>0.02528943797659755</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1291312055.528914</v>
+        <v>1812613528.863608</v>
       </c>
       <c r="F40" t="n">
-        <v>0.104236129236885</v>
+        <v>0.09844524714993499</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03784979895255131</v>
+        <v>0.05052224089162034</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1925638791.081541</v>
+        <v>2199960168.092478</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1552085761811292</v>
+        <v>0.1007395185133236</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04333275807889517</v>
+        <v>0.03747622816895987</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3947170598.955325</v>
+        <v>3811234550.268802</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1251410489485816</v>
+        <v>0.1238611937430562</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04601487857907703</v>
+        <v>0.03695667714749713</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>50</v>
+      </c>
+      <c r="J42" t="n">
+        <v>135</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1962820324.352794</v>
+        <v>2485212720.376274</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1759175880266823</v>
+        <v>0.1383010898652966</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02385831826100976</v>
+        <v>0.02317983231524078</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2037058585.16547</v>
+        <v>1552846338.71725</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08891650194524134</v>
+        <v>0.07975039274831532</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03239872732175277</v>
+        <v>0.03122686719390283</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2514724467.76665</v>
+        <v>1564197673.750846</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1214720740168815</v>
+        <v>0.1834178026471836</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04099033564758967</v>
+        <v>0.05282271861765663</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4751000712.51302</v>
+        <v>3577367293.568963</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1401666933926192</v>
+        <v>0.1193611571684715</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03828059983425144</v>
+        <v>0.03727258845651246</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>77</v>
+      </c>
+      <c r="J46" t="n">
+        <v>134</v>
+      </c>
+      <c r="K46" t="n">
+        <v>128.7534006696422</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3987038207.924472</v>
+        <v>3740565872.536285</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1636665639233736</v>
+        <v>0.1878066315756795</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03926290243795698</v>
+        <v>0.04188179086138254</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>60</v>
+      </c>
+      <c r="J47" t="n">
+        <v>134</v>
+      </c>
+      <c r="K47" t="n">
+        <v>115.7456263806978</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3041471960.848151</v>
+        <v>3131222438.427514</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08380774648727651</v>
+        <v>0.1077368881528051</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03228422555824152</v>
+        <v>0.03113090195207378</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>55</v>
+      </c>
+      <c r="J48" t="n">
+        <v>134</v>
+      </c>
+      <c r="K48" t="n">
+        <v>99.49629753087945</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1727288812.128456</v>
+        <v>1892419644.775184</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1322941115433726</v>
+        <v>0.1747822036353492</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03536950832252896</v>
+        <v>0.04086130387616026</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4077186304.766246</v>
+        <v>2627886646.671998</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1219508077269521</v>
+        <v>0.1283464335580475</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03567699837289475</v>
+        <v>0.03766345903280216</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>46</v>
+      </c>
+      <c r="J50" t="n">
+        <v>131</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1422049231.117251</v>
+        <v>1458242756.743772</v>
       </c>
       <c r="F51" t="n">
-        <v>0.139612416362652</v>
+        <v>0.1688098761165369</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03477523363061365</v>
+        <v>0.04324333750261795</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3399426880.171475</v>
+        <v>3974452537.989743</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1349547637453357</v>
+        <v>0.08672351959563149</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05192742478438987</v>
+        <v>0.05832079081841807</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>101</v>
+      </c>
+      <c r="J52" t="n">
+        <v>135</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2585739382.130437</v>
+        <v>2901442822.172611</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1819643705104529</v>
+        <v>0.1586100060254312</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03495106865770181</v>
+        <v>0.03257311322571327</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>129</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3062981515.981861</v>
+        <v>4194729549.017477</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1551107227548628</v>
+        <v>0.1545839575773212</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03424094148032913</v>
+        <v>0.04035730368382444</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>61</v>
+      </c>
+      <c r="J54" t="n">
+        <v>135</v>
+      </c>
+      <c r="K54" t="n">
+        <v>146.8796615230112</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3276416867.113976</v>
+        <v>4828222655.523082</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2224408078289248</v>
+        <v>0.1857683092010388</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02483090221185538</v>
+        <v>0.03012815080535847</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>62</v>
+      </c>
+      <c r="J55" t="n">
+        <v>134</v>
+      </c>
+      <c r="K55" t="n">
+        <v>134.4320686719594</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1177837008.749331</v>
+        <v>1234244247.113665</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1568316925654096</v>
+        <v>0.1477778293481528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05313331933953243</v>
+        <v>0.05576891437340174</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3631265456.316382</v>
+        <v>4592233239.839367</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1555632594106708</v>
+        <v>0.1306794236376978</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02753765667845301</v>
+        <v>0.01704634246655947</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>54</v>
+      </c>
+      <c r="J57" t="n">
+        <v>134</v>
+      </c>
+      <c r="K57" t="n">
+        <v>139.1689096395967</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1267165593.081492</v>
+        <v>1250310757.587829</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2017082169962693</v>
+        <v>0.1673205636661515</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02664455181629515</v>
+        <v>0.03696683100656558</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4065669860.639771</v>
+        <v>4052419750.605216</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1065334686913948</v>
+        <v>0.1012492500318322</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04485020655548021</v>
+        <v>0.03074251001946642</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>65</v>
+      </c>
+      <c r="J59" t="n">
+        <v>135</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2894060802.206471</v>
+        <v>2891390352.930348</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1251225168297534</v>
+        <v>0.1803233732147039</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02752794070397437</v>
+        <v>0.02852357833363379</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>130</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2830597931.278291</v>
+        <v>3095222570.230998</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1143874723287143</v>
+        <v>0.1511011336301268</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0294048115025713</v>
+        <v>0.03242282841922785</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1505582195.817686</v>
+        <v>2049366559.883592</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1467733233398393</v>
+        <v>0.1934820909830924</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04837398574881587</v>
+        <v>0.03681048589720833</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3966917555.12795</v>
+        <v>4875884795.088782</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1066715330288015</v>
+        <v>0.1007937156526678</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03570094147809749</v>
+        <v>0.04650791201048554</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>66</v>
+      </c>
+      <c r="J63" t="n">
+        <v>135</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5021064600.48608</v>
+        <v>5205965887.660409</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1541854391008151</v>
+        <v>0.1411696044809888</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03284438350211453</v>
+        <v>0.02870786501689956</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>67</v>
+      </c>
+      <c r="J64" t="n">
+        <v>134</v>
+      </c>
+      <c r="K64" t="n">
+        <v>138.699536184916</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5852944843.363382</v>
+        <v>5080966986.045238</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1442159113761789</v>
+        <v>0.1666871532823202</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02349308077262861</v>
+        <v>0.01973407895398736</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>112</v>
+      </c>
+      <c r="J65" t="n">
+        <v>135</v>
+      </c>
+      <c r="K65" t="n">
+        <v>149.0106776064886</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5101340717.517218</v>
+        <v>3683004182.314338</v>
       </c>
       <c r="F66" t="n">
-        <v>0.142783507113999</v>
+        <v>0.1346073584567749</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04592175563213879</v>
+        <v>0.0456498928202293</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>66</v>
+      </c>
+      <c r="J66" t="n">
+        <v>135</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3242476181.31928</v>
+        <v>3130157077.987611</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08783420204392946</v>
+        <v>0.06584595941705111</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03733964049207632</v>
+        <v>0.04323657198381208</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5484575406.062344</v>
+        <v>6058930096.159645</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1173938865423332</v>
+        <v>0.1387371907285135</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03874607985611844</v>
+        <v>0.04807105171655614</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>68</v>
+      </c>
+      <c r="J68" t="n">
+        <v>134</v>
+      </c>
+      <c r="K68" t="n">
+        <v>135.5779577148754</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1883819949.173535</v>
+        <v>1735855269.847575</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1540146292425218</v>
+        <v>0.144949669102057</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04493942335493708</v>
+        <v>0.05407393756700007</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2786584833.423639</v>
+        <v>2971001189.606781</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08697792312309716</v>
+        <v>0.1004016679135703</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04299768707415588</v>
+        <v>0.04243662836019481</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>132</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4742520151.91293</v>
+        <v>5251288926.317386</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1154150062135691</v>
+        <v>0.1276917300510906</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03132252269483252</v>
+        <v>0.02432248757796015</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>108</v>
+      </c>
+      <c r="J71" t="n">
+        <v>135</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1583151333.779771</v>
+        <v>1974296027.874962</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1034709570287703</v>
+        <v>0.06699423883177134</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03719852962247241</v>
+        <v>0.05090706272338415</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3016,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3137231563.953001</v>
+        <v>2227101651.248412</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07611766915762204</v>
+        <v>0.09715833688958404</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03985872499298879</v>
+        <v>0.03221691444671875</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="n">
+        <v>52.99525492048857</v>
       </c>
     </row>
     <row r="74">
@@ -2502,16 +3053,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2526341591.185549</v>
+        <v>2423411926.800098</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1449998835785468</v>
+        <v>0.182924342675246</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02707311745942076</v>
+        <v>0.03227658381177091</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>44</v>
+      </c>
+      <c r="J74" t="n">
+        <v>134</v>
+      </c>
+      <c r="K74" t="n">
+        <v>58.81614049121346</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2045823625.274503</v>
+        <v>1530503798.990994</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1420996072899561</v>
+        <v>0.1610830249876938</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02710384006875001</v>
+        <v>0.02430639855983863</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3590568608.911764</v>
+        <v>3272784570.089843</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07622210290132202</v>
+        <v>0.1108554073782531</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02189350484389411</v>
+        <v>0.02470642280707351</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>62</v>
+      </c>
+      <c r="J76" t="n">
+        <v>133</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2215477011.167308</v>
+        <v>1678557398.918265</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1179019588558022</v>
+        <v>0.1704251707893126</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02114683268521511</v>
+        <v>0.0255352266523884</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3305211643.281726</v>
+        <v>4697982085.873437</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08952545187918146</v>
+        <v>0.1091669832365303</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05589458703960262</v>
+        <v>0.04120359018814315</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>66</v>
+      </c>
+      <c r="J78" t="n">
+        <v>135</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1899574146.157803</v>
+        <v>1174652606.34912</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1339074331242339</v>
+        <v>0.1083016028779462</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04001737860530802</v>
+        <v>0.03829155285440492</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4683910604.488681</v>
+        <v>4050342995.993374</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07833256729320032</v>
+        <v>0.0858242170006269</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02738785391688275</v>
+        <v>0.03736963127110825</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>65</v>
+      </c>
+      <c r="J80" t="n">
+        <v>135</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3840514133.773285</v>
+        <v>4764285541.882688</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1253446423726728</v>
+        <v>0.1273942845375974</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03094144650190912</v>
+        <v>0.02313637503853936</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>61</v>
+      </c>
+      <c r="J81" t="n">
+        <v>135</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4082861647.809957</v>
+        <v>3800438163.409453</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1597310522669549</v>
+        <v>0.1817164145939226</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02889022761584259</v>
+        <v>0.02215754804565221</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>96</v>
+      </c>
+      <c r="J82" t="n">
+        <v>135</v>
+      </c>
+      <c r="K82" t="n">
+        <v>153.8511448385137</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1591083441.506753</v>
+        <v>1976150281.491801</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1053584826030692</v>
+        <v>0.1146861272142931</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04488051281102395</v>
+        <v>0.03195053527987724</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2279306362.910328</v>
+        <v>2301555395.856579</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09328718686166659</v>
+        <v>0.1208202869826004</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04288050025255671</v>
+        <v>0.04882444071055294</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2773536400.897634</v>
+        <v>2223356017.382641</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1335396532308883</v>
+        <v>0.159041756117561</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03483807990530146</v>
+        <v>0.05090932443478484</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>21</v>
+      </c>
+      <c r="J85" t="n">
+        <v>133</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2424412751.753536</v>
+        <v>2489661396.972009</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1662391460552571</v>
+        <v>0.1077862853593343</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02492592409996724</v>
+        <v>0.02750276814539471</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1192579345.847075</v>
+        <v>1163322601.842646</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1455441128031604</v>
+        <v>0.161691613840099</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0424214928564885</v>
+        <v>0.03420359728700868</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2937164174.547185</v>
+        <v>2368427365.289555</v>
       </c>
       <c r="F88" t="n">
-        <v>0.146016045330614</v>
+        <v>0.1684512119991565</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02967821352078513</v>
+        <v>0.0310430052656125</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="n">
+        <v>59.87449532369043</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3138598468.743334</v>
+        <v>2813759520.87212</v>
       </c>
       <c r="F89" t="n">
-        <v>0.149909057026218</v>
+        <v>0.1030205461140415</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03404589938352116</v>
+        <v>0.02553879724401234</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1531696014.924092</v>
+        <v>1685357075.188415</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1004436883430036</v>
+        <v>0.09698711916980027</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04048022382499045</v>
+        <v>0.05051206618609949</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1558399877.044446</v>
+        <v>1608448940.817314</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1763198252157565</v>
+        <v>0.1602642874150256</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06199279302322631</v>
+        <v>0.04885280208566774</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1844710121.03897</v>
+        <v>2696550617.651141</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08291363971741525</v>
+        <v>0.06643183546473568</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04359157594476636</v>
+        <v>0.03506158434924107</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3724,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4931639530.059763</v>
+        <v>4752797668.424753</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1210016307682667</v>
+        <v>0.09652644668251299</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05376124850731027</v>
+        <v>0.05398511154386003</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>61</v>
+      </c>
+      <c r="J93" t="n">
+        <v>134</v>
+      </c>
+      <c r="K93" t="n">
+        <v>135.869167514162</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1917757117.104485</v>
+        <v>2396406135.717775</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1452443345645704</v>
+        <v>0.1261971669543845</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03351238730971534</v>
+        <v>0.04082165846441004</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3095597422.209025</v>
+        <v>2713928318.001821</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1330906458380851</v>
+        <v>0.08780488626589829</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04236346392835753</v>
+        <v>0.0503490365191068</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2324682501.943622</v>
+        <v>1696080652.584957</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1153765834284768</v>
+        <v>0.09053721062896355</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03257474335847783</v>
+        <v>0.04550575675088891</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4380249974.448858</v>
+        <v>3857146621.001666</v>
       </c>
       <c r="F97" t="n">
-        <v>0.164247513411763</v>
+        <v>0.1632392021943971</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02711516724971438</v>
+        <v>0.02086799880431692</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>64</v>
+      </c>
+      <c r="J97" t="n">
+        <v>135</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3610477274.45751</v>
+        <v>2672371840.640776</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08345291936093464</v>
+        <v>0.1081169406392708</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0229627683071327</v>
+        <v>0.02412701412412137</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>32</v>
+      </c>
+      <c r="J98" t="n">
+        <v>132</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2803564462.788353</v>
+        <v>3342382433.021297</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1153044716656126</v>
+        <v>0.1255549778700317</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02350201492554996</v>
+        <v>0.02387001717733318</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3891551740.918327</v>
+        <v>3048611823.757869</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1712939447215246</v>
+        <v>0.13331427823755</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02333467829295917</v>
+        <v>0.01932646726046942</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>55</v>
+      </c>
+      <c r="J100" t="n">
+        <v>133</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2172591381.555136</v>
+        <v>2474911886.992469</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1378517160162093</v>
+        <v>0.2174748826601833</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0444097517007633</v>
+        <v>0.04119353678397685</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>131</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
